--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Uts2-Uts2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Uts2-Uts2r.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2109473333333333</v>
+        <v>0.3735556666666667</v>
       </c>
       <c r="H2">
-        <v>0.632842</v>
+        <v>1.120667</v>
       </c>
       <c r="I2">
-        <v>0.1540030968921328</v>
+        <v>0.2390338626701809</v>
       </c>
       <c r="J2">
-        <v>0.1540030968921327</v>
+        <v>0.239033862670181</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04056999999999999</v>
+        <v>0.04057</v>
       </c>
       <c r="N2">
         <v>0.12171</v>
       </c>
       <c r="O2">
-        <v>0.2206654229193976</v>
+        <v>0.1939988045427376</v>
       </c>
       <c r="P2">
-        <v>0.2206654229193976</v>
+        <v>0.1939988045427376</v>
       </c>
       <c r="Q2">
-        <v>0.008558133313333332</v>
+        <v>0.01515515339666667</v>
       </c>
       <c r="R2">
-        <v>0.07702319982</v>
+        <v>0.13639638057</v>
       </c>
       <c r="S2">
-        <v>0.03398315850659944</v>
+        <v>0.04637228360324801</v>
       </c>
       <c r="T2">
-        <v>0.03398315850659943</v>
+        <v>0.04637228360324801</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,46 +596,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2109473333333333</v>
+        <v>0.3735556666666667</v>
       </c>
       <c r="H3">
-        <v>0.632842</v>
+        <v>1.120667</v>
       </c>
       <c r="I3">
-        <v>0.1540030968921328</v>
+        <v>0.2390338626701809</v>
       </c>
       <c r="J3">
-        <v>0.1540030968921327</v>
+        <v>0.239033862670181</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.143283</v>
+        <v>0.168555</v>
       </c>
       <c r="N3">
-        <v>0.429849</v>
+        <v>0.505665</v>
       </c>
       <c r="O3">
-        <v>0.7793345770806025</v>
+        <v>0.8060011954572625</v>
       </c>
       <c r="P3">
-        <v>0.7793345770806025</v>
+        <v>0.8060011954572625</v>
       </c>
       <c r="Q3">
-        <v>0.030225166762</v>
+        <v>0.062964675395</v>
       </c>
       <c r="R3">
-        <v>0.272026500858</v>
+        <v>0.5666820785550001</v>
       </c>
       <c r="S3">
-        <v>0.1200199383855333</v>
+        <v>0.1926615790669329</v>
       </c>
       <c r="T3">
-        <v>0.1200199383855333</v>
+        <v>0.192661579066933</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.8080599999999999</v>
+        <v>0.8080600000000001</v>
       </c>
       <c r="H4">
         <v>2.42418</v>
       </c>
       <c r="I4">
-        <v>0.5899280190378804</v>
+        <v>0.5170680578689292</v>
       </c>
       <c r="J4">
-        <v>0.5899280190378804</v>
+        <v>0.5170680578689292</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.04056999999999999</v>
+        <v>0.04057</v>
       </c>
       <c r="N4">
         <v>0.12171</v>
       </c>
       <c r="O4">
-        <v>0.2206654229193976</v>
+        <v>0.1939988045427376</v>
       </c>
       <c r="P4">
-        <v>0.2206654229193976</v>
+        <v>0.1939988045427376</v>
       </c>
       <c r="Q4">
-        <v>0.03278299419999999</v>
+        <v>0.03278299420000001</v>
       </c>
       <c r="R4">
         <v>0.2950469478</v>
       </c>
       <c r="S4">
-        <v>0.1301767158129963</v>
+        <v>0.1003105850938073</v>
       </c>
       <c r="T4">
-        <v>0.1301767158129963</v>
+        <v>0.1003105850938073</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.8080599999999999</v>
+        <v>0.8080600000000001</v>
       </c>
       <c r="H5">
         <v>2.42418</v>
       </c>
       <c r="I5">
-        <v>0.5899280190378804</v>
+        <v>0.5170680578689292</v>
       </c>
       <c r="J5">
-        <v>0.5899280190378804</v>
+        <v>0.5170680578689292</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.143283</v>
+        <v>0.168555</v>
       </c>
       <c r="N5">
-        <v>0.429849</v>
+        <v>0.505665</v>
       </c>
       <c r="O5">
-        <v>0.7793345770806025</v>
+        <v>0.8060011954572625</v>
       </c>
       <c r="P5">
-        <v>0.7793345770806025</v>
+        <v>0.8060011954572625</v>
       </c>
       <c r="Q5">
-        <v>0.11578126098</v>
+        <v>0.1362025533</v>
       </c>
       <c r="R5">
-        <v>1.04203134882</v>
+        <v>1.2258229797</v>
       </c>
       <c r="S5">
-        <v>0.4597513032248841</v>
+        <v>0.4167574727751219</v>
       </c>
       <c r="T5">
-        <v>0.4597513032248841</v>
+        <v>0.4167574727751219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3507529999999999</v>
+        <v>0.3811573333333333</v>
       </c>
       <c r="H6">
-        <v>1.052259</v>
+        <v>1.143472</v>
       </c>
       <c r="I6">
-        <v>0.256068884069987</v>
+        <v>0.2438980794608899</v>
       </c>
       <c r="J6">
-        <v>0.256068884069987</v>
+        <v>0.2438980794608899</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,28 +800,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.04056999999999999</v>
+        <v>0.04057</v>
       </c>
       <c r="N6">
         <v>0.12171</v>
       </c>
       <c r="O6">
-        <v>0.2206654229193976</v>
+        <v>0.1939988045427376</v>
       </c>
       <c r="P6">
-        <v>0.2206654229193976</v>
+        <v>0.1939988045427376</v>
       </c>
       <c r="Q6">
-        <v>0.01423004920999999</v>
+        <v>0.01546355301333333</v>
       </c>
       <c r="R6">
-        <v>0.12807044289</v>
+        <v>0.13917197712</v>
       </c>
       <c r="S6">
-        <v>0.05650554859980186</v>
+        <v>0.04731593584568226</v>
       </c>
       <c r="T6">
-        <v>0.05650554859980186</v>
+        <v>0.04731593584568227</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3507529999999999</v>
+        <v>0.3811573333333333</v>
       </c>
       <c r="H7">
-        <v>1.052259</v>
+        <v>1.143472</v>
       </c>
       <c r="I7">
-        <v>0.256068884069987</v>
+        <v>0.2438980794608899</v>
       </c>
       <c r="J7">
-        <v>0.256068884069987</v>
+        <v>0.2438980794608899</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.143283</v>
+        <v>0.168555</v>
       </c>
       <c r="N7">
-        <v>0.429849</v>
+        <v>0.505665</v>
       </c>
       <c r="O7">
-        <v>0.7793345770806025</v>
+        <v>0.8060011954572625</v>
       </c>
       <c r="P7">
-        <v>0.7793345770806025</v>
+        <v>0.8060011954572625</v>
       </c>
       <c r="Q7">
-        <v>0.05025694209899999</v>
+        <v>0.06424597432000001</v>
       </c>
       <c r="R7">
-        <v>0.4523124788909999</v>
+        <v>0.5782137688800001</v>
       </c>
       <c r="S7">
-        <v>0.1995633354701851</v>
+        <v>0.1965821436152076</v>
       </c>
       <c r="T7">
-        <v>0.1995633354701851</v>
+        <v>0.1965821436152077</v>
       </c>
     </row>
   </sheetData>
